--- a/DB設計書_エンティティ一覧E-R図.xlsx
+++ b/DB設計書_エンティティ一覧E-R図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/916e6afeff0294a9/ドキュメント/2023/php2/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{C919EE5B-7D25-4BA2-AEAD-AC38F44DD38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8EF6CEB-F1C9-4D2B-8F0E-2B3F6CE5EBFB}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{C919EE5B-7D25-4BA2-AEAD-AC38F44DD38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{738A2799-38E0-406D-87B9-575E59A0E425}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="エンティティ一覧E-R図" sheetId="11" r:id="rId1"/>
@@ -584,12 +584,18 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,12 +613,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -731,7 +731,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ID</a:t>
+            <a:t>ID(PK)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -750,7 +750,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ID</a:t>
+            <a:t>ID(FK)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -965,7 +965,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ID</a:t>
+            <a:t>ID(PK)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1339,8 +1339,8 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="70" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="65" zoomScaleNormal="70" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" x14ac:dyDescent="0.2"/>
@@ -1355,20 +1355,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="15" t="s">
         <v>20</v>
       </c>
@@ -1381,10 +1381,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="15" t="s">
         <v>5</v>
       </c>
@@ -1392,15 +1392,15 @@
       <c r="E3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="23">
         <v>45300</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="15" t="s">
         <v>21</v>
       </c>
@@ -1413,10 +1413,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="15" t="s">
         <v>23</v>
       </c>
@@ -1427,10 +1427,10 @@
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="15" t="s">
         <v>22</v>
       </c>
@@ -1471,10 +1471,10 @@
       <c r="D9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
@@ -1489,10 +1489,10 @@
       <c r="D10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="30"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
@@ -1507,58 +1507,58 @@
       <c r="D11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="30"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
@@ -1780,11 +1780,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -1795,6 +1790,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1809,15 +1809,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100BFC0EF9402E0BC4D950BE0463238F058" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="29547883fa4e1f04516c4a4ed9dcf586">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e902a8de-3658-41ea-a6f5-6cbcd296e962" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba70f00e0c2599a16aec11a68ccb0edb" ns2:_="">
     <xsd:import namespace="e902a8de-3658-41ea-a6f5-6cbcd296e962"/>
@@ -1961,6 +1952,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1970,14 +1970,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEBD8FB-4ACF-49B5-84A3-1B13CF026D05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1991,6 +1983,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
